--- a/Quebra.xlsx
+++ b/Quebra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciusdemartinviude/lugh/QuantumVisualator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CC8BAE-CC0F-AB48-AA54-D68015481D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB621EE-7B5D-FA45-8D2E-D6B098B6E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1320" windowWidth="38400" windowHeight="21100" xr2:uid="{6D208E13-A0E4-DC4C-A299-E7365B28E331}"/>
   </bookViews>
@@ -18082,8 +18082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE04C1-C77A-514E-B1F5-1FC36FE899E8}">
   <dimension ref="A2:F893"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
